--- a/processed/processed.xlsx
+++ b/processed/processed.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intro" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lista zmian" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Elektronarzedzia" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ostrza" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -641,32 +642,32 @@
           <t>Piła Szablasta - Podstawowa - 400 W</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Podstawowa piła szablasta o mocy 400 W</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Brzeszczot Bagnetowy</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>400 W</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Szczotkowy</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Przewodowy</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
         <v>200</v>
       </c>
     </row>
@@ -686,32 +687,32 @@
           <t>Piła Szablasta - Podstawowa, Akumulatorowa - 400 W</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Podstawowa piła szablasta o mocy 400 W, akumulatorowa</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Brzeszczot Bagnetowy</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>400 W</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Szczotkowy</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>Akumulator 18V</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="O3" t="n">
         <v>350</v>
       </c>
     </row>
@@ -723,27 +724,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EPT165PA</t>
+          <t>EPT165PP</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pilarka Tarczowa - Podstawowa, Akumulatorowa - 165</t>
+          <t>Pilarka Tarczowa - Podstawowa, Przewodowa - 165</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Podstawowa Pilarka Tarczowa, Akumulatorowa - 165 Mm, 800 W</t>
+          <t>Podstawowa Pilarka Tarczowa, Przewodowa - 165 Mm, 800 W</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Podstawowa, akumulatorowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
+          <t>Podstawowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Podstawowa, akumulatorowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
+          <t>Podstawowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -778,19 +779,19 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Akumulator 18V</t>
+          <t>Przewodowy</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Akumulator 18V</t>
+          <t>Przewodowy</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="P4" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5">
@@ -879,27 +880,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EPSUP</t>
+          <t>EPSUA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Piła Szablasta - Uniwersalna - 800 W</t>
+          <t>Piła Szablasta - Uniwersalna, Akumulatorowa - 800 W</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Uniwersalna Piła Szablasta, 800 W</t>
+          <t>Uniwersalna Piła Szablasta, Akumulatorowa , 800 W</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Uniwersalna piła szablasta o mocy 800 W</t>
+          <t>Uniwersalna piła szablasta o mocy 800 W, akumulatorowa</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Uniwersalna piła szablasta o mocy 800 W</t>
+          <t>Uniwersalna piła szablasta o mocy 800 W, akumulatorowa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -934,19 +935,19 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Przewodowy</t>
+          <t>Akumulator 18V</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Przewodowy</t>
+          <t>Akumulator 18V</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="P6" t="n">
-        <v>320</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7">
@@ -957,74 +958,74 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EPSZP</t>
+          <t>EPT165PA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Piła Szablasta - Zaawansowana - 1200 W</t>
+          <t>Pilarka Tarczowa - Podstawowa, Akumulatorowa - 165</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Zaawansowana Piła Szablasta, 1200 W</t>
+          <t>Podstawowa Pilarka Tarczowa, Akumulatorowa - 165 Mm, 800 W</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Zaawansowana piła szablasta o mocy 1200 W</t>
+          <t>Podstawowa, akumulatorowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Zaawansowana piła szablasta o mocy 1200 W</t>
+          <t>Podstawowa, akumulatorowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Brzeszczot Bagnetowy</t>
+          <t>Piła Tarczowa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Brzeszczot Bagnetowy</t>
+          <t>Piła Tarczowa</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1200 W</t>
+          <t>800 W</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1200 W</t>
+          <t>800 W</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Bezszczotkowy</t>
+          <t>Szczotkowy</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Bezszczotkowy</t>
+          <t>Szczotkowy</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Przewodowy</t>
+          <t>Akumulator 18V</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Przewodowy</t>
+          <t>Akumulator 18V</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="P7" t="n">
-        <v>690</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8">
@@ -1035,47 +1036,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EPSUA</t>
+          <t>EPT165UA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Piła Szablasta - Uniwersalna, Akumulatorowa - 800 W</t>
+          <t>Pilarka Tarczowa - Uniwersalna, Akumulatorowa - 165</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Uniwersalna Piła Szablasta, Akumulatorowa , 800 W</t>
+          <t>Uniwersalna Pilarka Tarczowa, Akumulatorowa - 165 Mm, 1200 W</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Uniwersalna piła szablasta o mocy 800 W, akumulatorowa</t>
+          <t>Uniwersalna, akumulatorowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Uniwersalna piła szablasta o mocy 800 W, akumulatorowa</t>
+          <t>Uniwersalna, akumulatorowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Brzeszczot Bagnetowy</t>
+          <t>Piła Tarczowa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Brzeszczot Bagnetowy</t>
+          <t>Piła Tarczowa</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>800 W</t>
+          <t>1200 W</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>800 W</t>
+          <t>1200 W</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1099,10 +1100,10 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="P8" t="n">
-        <v>520</v>
+        <v>650</v>
       </c>
     </row>
     <row r="9">
@@ -1186,62 +1187,62 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>zmodyfikowane</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EPT165PP</t>
+          <t>EPSZP</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pilarka Tarczowa - Podstawowa, Przewodowa - 165</t>
+          <t>Piła Szablasta - Zaawansowana - 1200 W</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Podstawowa Pilarka Tarczowa, Przewodowa - 165 Mm, 800 W</t>
+          <t>Zaawansowana Piła Szablasta, 1200 W</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Podstawowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
+          <t>Zaawansowana piła szablasta o mocy 1200 W</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Podstawowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
+          <t>Zaawansowana piła szablasta o mocy 1200 W</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Piła Tarczowa</t>
+          <t>Brzeszczot Bagnetowy</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Piła Tarczowa</t>
+          <t>Brzeszczot Bagnetowy</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>800 W</t>
+          <t>1200 W</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>800 W</t>
+          <t>1200 W</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Szczotkowy</t>
+          <t>Bezszczotkowy</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Szczotkowy</t>
+          <t>Bezszczotkowy</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1255,41 +1256,41 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="P10" t="n">
-        <v>300</v>
+        <v>690</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>zmodyfikowane</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EPT165UP</t>
+          <t>EPT165ZP</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pilarka Tarczowa - Uniwersalna, Przewodowa - 165</t>
+          <t>Pilarka Tarczowa - Zaawansowana, Przewodowa - 165</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Uniwersalna Pilarka Tarczowa, Przewodowa - 165 Mm, 1200 W</t>
+          <t>Zaawansowana Pilarka Tarczowa, Przewodowa - 165 Mm, 1600 W</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Uniwersalna pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
+          <t>Zaawansowana pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Uniwersalna pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
+          <t>Zaawansowana pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1304,22 +1305,22 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1200 W</t>
+          <t>1600 W</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1200 W</t>
+          <t>1600 W</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Szczotkowy</t>
+          <t>Bezszczotkowy</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Szczotkowy</t>
+          <t>Bezszczotkowy</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1333,41 +1334,41 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="P11" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>zmodyfikowane</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EPT165ZP</t>
+          <t>EPT165UP</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Pilarka Tarczowa - Zaawansowana, Przewodowa - 165</t>
+          <t>Pilarka Tarczowa - Uniwersalna, Przewodowa - 165</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Zaawansowana Pilarka Tarczowa, Przewodowa - 165 Mm, 1600 W</t>
+          <t>Uniwersalna Pilarka Tarczowa, Przewodowa - 165 Mm, 1200 W</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Zaawansowana pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
+          <t>Uniwersalna pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Zaawansowana pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
+          <t>Uniwersalna pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1382,22 +1383,22 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1600 W</t>
+          <t>1200 W</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1600 W</t>
+          <t>1200 W</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Bezszczotkowy</t>
+          <t>Szczotkowy</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Bezszczotkowy</t>
+          <t>Szczotkowy</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1411,88 +1412,1315 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="P12" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>zmodyfikowane</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EPT165UA</t>
+          <t>EPSUP</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pilarka Tarczowa - Uniwersalna, Akumulatorowa - 165</t>
+          <t>Piła Szablasta - Uniwersalna - 800 W</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Uniwersalna Pilarka Tarczowa, Akumulatorowa - 165 Mm, 1200 W</t>
+          <t>Uniwersalna Piła Szablasta, 800 W</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Uniwersalna, akumulatorowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
+          <t>Uniwersalna piła szablasta o mocy 800 W</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Uniwersalna, akumulatorowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
+          <t>Uniwersalna piła szablasta o mocy 800 W</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>Brzeszczot Bagnetowy</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>800 W</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>800 W</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Szczotkowy</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Szczotkowy</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Przewodowy</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Przewodowy</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>350</v>
+      </c>
+      <c r="P13" t="n">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>NAZWA_23</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NAZWA_24</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>TYP_23</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>TYP_24</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>OPIS_23</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>OPIS_24</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>DLUGOSC_23</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>DLUGOSC_24</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>SREDNICA_23</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>SREDNICA_24</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>GRUBOSC_23</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>GRUBOSC_24</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>MATERIAL_23</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>MATERIAL_24</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>LICZBA_ZEBOW_23</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>LICZBA_ZEBOW_24</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>ZASTOSOWANIE_23</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>ZASTOSOWANIE_24</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>CENA_23</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>CENA_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>nowe</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BBM300</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy - Do Metalu 300</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Brzeszczot bagnetowy do metalu o długości 300 mm.</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>230</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Hss</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>24</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Laminat
+Metal
+Pvc</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>nowe</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BBD300</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy - Do Drewna 300</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Brzeszczot bagnetowy do drewna o długości 300 mm.</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>230</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Bimetal</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>8</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Drewno
+Fornir
+Płyty Wiórowe</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>zmodyfikowane</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PTU165</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa - Uniwersalna 165</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa - Uniwersalna 165</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Piła Tarczowa</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Uniwersalna piła tarczowa o rozmiarze 165 mm do roznych materiałów.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Uniwersalna piła tarczowa o rozmiarze 165 mm do roznych materiałów.</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>165</v>
+      </c>
+      <c r="L4" t="n">
+        <v>165</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Węglik Spiekany</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Węglik Spiekany</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>48</v>
+      </c>
+      <c r="R4" t="n">
+        <v>48</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Aluminium
+Drewno
+Laminat
+Pvc</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Aluminium
+Drewno
+Laminat
+Pvc</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>200</v>
+      </c>
+      <c r="V4" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>zmodyfikowane</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BBM150</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy - Do Metalu 150</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy - Do Metalu 150</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Brzeszczot bagnetowy do metalu o długości 150 mm</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Brzeszczot bagnetowy do metalu o długości 150 mm.</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>150</v>
+      </c>
+      <c r="J5" t="n">
+        <v>150</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Hss</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Hss</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>24</v>
+      </c>
+      <c r="R5" t="n">
+        <v>24</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Laminat
+Metal
+Pvc</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Laminat
+Metal
+Pvc</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>12</v>
+      </c>
+      <c r="V5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>zmodyfikowane</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PTDZ165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa Do Drewna - Zaawansowana 165</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa Do Drewna - Zaawansowana 165</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Piła tarczowa do drewna o rozmiarze 165 mm  do najtrudniejszych zadań.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Piła tarczowa do drewna o rozmiarze 165 mm  do najtrudniejszych zadań.</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>165</v>
+      </c>
+      <c r="L6" t="n">
+        <v>165</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Węglik Spiekany</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Węglik Spiekany</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>24</v>
+      </c>
+      <c r="R6" t="n">
+        <v>24</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Drewno</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Drewno
+Fornir
+Płyty Wiórowe</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>180</v>
+      </c>
+      <c r="V6" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>zmodyfikowane</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PTDP210</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa Do Drewna -  Podstawowa 210</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa Do Drewna -  Podstawowa 210</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Piła tarczowa o rozmiarze 210 mm  do podstawowych zastowań przy drewnie.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Piła tarczowa o rozmiarze 210 mm  do podstawowych zastowań przy drewnie.</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>210</v>
+      </c>
+      <c r="L7" t="n">
+        <v>210</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Węglik Spiekany</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Węglik Spiekany</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>24</v>
+      </c>
+      <c r="R7" t="n">
+        <v>24</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Drewno</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Drewno
+Fornir
+Płyty Wiórowe</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>140</v>
+      </c>
+      <c r="V7" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>zmodyfikowane</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BBD150</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy - Do Drewna 150</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy - Do Drewna 150</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Brzeszczot bagnetowy do drewna o długości 150 mm</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Brzeszczot bagnetowy do drewna o długości 150 mm.</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>150</v>
+      </c>
+      <c r="J8" t="n">
+        <v>150</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Bimetal</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Bimetal</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>8</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Drewno</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Drewno
+Fornir
+Płyty Wiórowe</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>12</v>
+      </c>
+      <c r="V8" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>zmodyfikowane</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PTU210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa - Uniwersalna 210</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa - Uniwersalna 210</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Uniwersalna piła tarczowa o rozmiarze 165 mm do roznych materiałów.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Uniwersalna piła tarczowa o rozmiarze 165 mm do roznych materiałów.</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>210</v>
+      </c>
+      <c r="L9" t="n">
+        <v>210</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Węglik Spiekany</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Węglik Spiekany</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>48</v>
+      </c>
+      <c r="R9" t="n">
+        <v>48</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Aluminium
+Drewno
+Laminat
+Pvc</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Aluminium
+Drewno
+Laminat
+Pvc</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>250</v>
+      </c>
+      <c r="V9" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>zmodyfikowane</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BBD300</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy - Do Drewna 300</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Brzeszczot bagnetowy do drewna o długości 300 mm.</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>230</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Bimetal</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Drewno
+Fornir
+Płyty Wiórowe</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>zmodyfikowane</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PTDZ210</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa Do Drewna - Zaawansowana 210</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa Do Drewna - Zaawansowana 210</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Piła tarczowa do drewna  o rozmiarze 210 mm do najtrudniejszych zadań.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Piła tarczowa do drewna  o rozmiarze 210 mm do najtrudniejszych zadań.</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>210</v>
+      </c>
+      <c r="L11" t="n">
+        <v>210</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Węglik Spiekany</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Węglik Spiekany</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>24</v>
+      </c>
+      <c r="R11" t="n">
+        <v>24</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Drewno</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Drewno
+Fornir
+Płyty Wiórowe</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>220</v>
+      </c>
+      <c r="V11" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>zmodyfikowane</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BBD230</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy - Do Drewna 230</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy - Do Drewna 230</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Brzeszczot bagnetowy do drewna o długości 230 mm</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Brzeszczot bagnetowy do drewna o długości 230 mm.</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>230</v>
+      </c>
+      <c r="J12" t="n">
+        <v>230</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Bimetal</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Bimetal</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>8</v>
+      </c>
+      <c r="R12" t="n">
+        <v>8</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Drewno</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Drewno
+Fornir
+Płyty Wiórowe</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>20</v>
+      </c>
+      <c r="V12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>zmodyfikowane</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BBM230</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy - Do Metalu 230</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy - Do Metalu 230</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Brzeszczot bagnetowy do metalu o długości 230 mm</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>Brzeszczot bagnetowy do metalu o długości 230 mm.</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>230</v>
+      </c>
+      <c r="J13" t="n">
+        <v>230</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Hss</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Hss</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>24</v>
+      </c>
+      <c r="R13" t="n">
+        <v>24</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Laminat
+Metal
+Pvc</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Laminat
+Metal
+Pvc</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v>20</v>
+      </c>
+      <c r="V13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>zmodyfikowane</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BBM300</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy - Do Metalu 300</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Brzeszczot bagnetowy do metalu o długości 300 mm.</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>230</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Hss</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>24</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Laminat
+Metal
+Pvc</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>zmodyfikowane</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PTDP165</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa Do Drewna - Podstawowa 165</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa Do Drewna - Podstawowa 165</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Piła Tarczowa</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1200 W</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>1200 W</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Szczotkowy</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Szczotkowy</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Akumulator 18V</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Akumulator 18V</t>
-        </is>
-      </c>
-      <c r="O13" t="n">
-        <v>650</v>
-      </c>
-      <c r="P13" t="n">
-        <v>650</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Piła tarczowa o rozmiarze 165 mm do podstawowych zastowań przy drewnie.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Piła tarczowa o rozmiarze 165 mm do podstawowych zastowań przy drewnie.</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>165</v>
+      </c>
+      <c r="L15" t="n">
+        <v>165</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Węglik Spiekany</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Węglik Spiekany</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>24</v>
+      </c>
+      <c r="R15" t="n">
+        <v>24</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Drewno</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Drewno
+Fornir
+Płyty Wiórowe</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
+        <v>100</v>
+      </c>
+      <c r="V15" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/processed/processed.xlsx
+++ b/processed/processed.xlsx
@@ -724,37 +724,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EPT165PP</t>
+          <t>EPSUA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pilarka Tarczowa - Podstawowa, Przewodowa - 165</t>
+          <t>Piła Szablasta - Uniwersalna, Akumulatorowa - 800 W</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Podstawowa Pilarka Tarczowa, Przewodowa - 165 Mm, 800 W</t>
+          <t>Uniwersalna Piła Szablasta, Akumulatorowa , 800 W</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Podstawowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
+          <t>Uniwersalna piła szablasta o mocy 800 W, akumulatorowa</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Podstawowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
+          <t>Uniwersalna piła szablasta o mocy 800 W, akumulatorowa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Piła Tarczowa</t>
+          <t>Brzeszczot Bagnetowy</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Piła Tarczowa</t>
+          <t>Brzeszczot Bagnetowy</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -779,19 +779,19 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Przewodowy</t>
+          <t>Akumulator 18V</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Przewodowy</t>
+          <t>Akumulator 18V</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="P4" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5">
@@ -802,27 +802,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EPT165ZA</t>
+          <t>EPT165ZP</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pilarka Tarczowa - Zaawansowana, Akumulatorowa - 165</t>
+          <t>Pilarka Tarczowa - Zaawansowana, Przewodowa - 165</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Zaawansowana Pilarka Tarczowa, Akumulatorowa - 165 Mm, 1600 W</t>
+          <t>Zaawansowana Pilarka Tarczowa, Przewodowa - 165 Mm, 1600 W</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Zaawansowana, akumulatorowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
+          <t>Zaawansowana pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Zaawansowana, akumulatorowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
+          <t>Zaawansowana pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -857,19 +857,19 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Akumulator 18V</t>
+          <t>Przewodowy</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Akumulator 18V</t>
+          <t>Przewodowy</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="P5" t="n">
-        <v>990</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6">
@@ -880,27 +880,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EPSUA</t>
+          <t>EPSZP</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Piła Szablasta - Uniwersalna, Akumulatorowa - 800 W</t>
+          <t>Piła Szablasta - Zaawansowana - 1200 W</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Uniwersalna Piła Szablasta, Akumulatorowa , 800 W</t>
+          <t>Zaawansowana Piła Szablasta, 1200 W</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Uniwersalna piła szablasta o mocy 800 W, akumulatorowa</t>
+          <t>Zaawansowana piła szablasta o mocy 1200 W</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Uniwersalna piła szablasta o mocy 800 W, akumulatorowa</t>
+          <t>Zaawansowana piła szablasta o mocy 1200 W</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -915,39 +915,39 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>800 W</t>
+          <t>1200 W</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>800 W</t>
+          <t>1200 W</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Szczotkowy</t>
+          <t>Bezszczotkowy</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Szczotkowy</t>
+          <t>Bezszczotkowy</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Akumulator 18V</t>
+          <t>Przewodowy</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Akumulator 18V</t>
+          <t>Przewodowy</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="P6" t="n">
-        <v>520</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7">
@@ -958,57 +958,57 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EPT165PA</t>
+          <t>EPSZA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Pilarka Tarczowa - Podstawowa, Akumulatorowa - 165</t>
+          <t>Piła Szablasta - Zaawansowana, Akumulatorowa - 1200 W</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Podstawowa Pilarka Tarczowa, Akumulatorowa - 165 Mm, 800 W</t>
+          <t>Zaawansowana Piła Szablasta, Akumulatorowa , 1200 W</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Podstawowa, akumulatorowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
+          <t>Zaawansowana piła szablasta o mocy 1200 W, akumulatorowa</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Podstawowa, akumulatorowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
+          <t>Zaawansowana piła szablasta o mocy 1200 W, akumulatorowa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Piła Tarczowa</t>
+          <t>Brzeszczot Bagnetowy</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Piła Tarczowa</t>
+          <t>Brzeszczot Bagnetowy</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>800 W</t>
+          <t>1200 W</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>800 W</t>
+          <t>1200 W</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Szczotkowy</t>
+          <t>Bezszczotkowy</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Szczotkowy</t>
+          <t>Bezszczotkowy</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="P7" t="n">
-        <v>420</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8">
@@ -1036,47 +1036,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EPT165UA</t>
+          <t>EPSUP</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Pilarka Tarczowa - Uniwersalna, Akumulatorowa - 165</t>
+          <t>Piła Szablasta - Uniwersalna - 800 W</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Uniwersalna Pilarka Tarczowa, Akumulatorowa - 165 Mm, 1200 W</t>
+          <t>Uniwersalna Piła Szablasta, 800 W</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Uniwersalna, akumulatorowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
+          <t>Uniwersalna piła szablasta o mocy 800 W</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Uniwersalna, akumulatorowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
+          <t>Uniwersalna piła szablasta o mocy 800 W</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Piła Tarczowa</t>
+          <t>Brzeszczot Bagnetowy</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Piła Tarczowa</t>
+          <t>Brzeszczot Bagnetowy</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1200 W</t>
+          <t>800 W</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1200 W</t>
+          <t>800 W</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1091,19 +1091,19 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Akumulator 18V</t>
+          <t>Przewodowy</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Akumulator 18V</t>
+          <t>Przewodowy</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="P8" t="n">
-        <v>650</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9">
@@ -1114,47 +1114,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EPSZA</t>
+          <t>EPT165ZA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Piła Szablasta - Zaawansowana, Akumulatorowa - 1200 W</t>
+          <t>Pilarka Tarczowa - Zaawansowana, Akumulatorowa - 165</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Zaawansowana Piła Szablasta, Akumulatorowa , 1200 W</t>
+          <t>Zaawansowana Pilarka Tarczowa, Akumulatorowa - 165 Mm, 1600 W</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Zaawansowana piła szablasta o mocy 1200 W, akumulatorowa</t>
+          <t>Zaawansowana, akumulatorowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Zaawansowana piła szablasta o mocy 1200 W, akumulatorowa</t>
+          <t>Zaawansowana, akumulatorowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Brzeszczot Bagnetowy</t>
+          <t>Piła Tarczowa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Brzeszczot Bagnetowy</t>
+          <t>Piła Tarczowa</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1200 W</t>
+          <t>1600 W</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1200 W</t>
+          <t>1600 W</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="P9" t="n">
-        <v>870</v>
+        <v>990</v>
       </c>
     </row>
     <row r="10">
@@ -1192,37 +1192,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EPSZP</t>
+          <t>EPT165UA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Piła Szablasta - Zaawansowana - 1200 W</t>
+          <t>Pilarka Tarczowa - Uniwersalna, Akumulatorowa - 165</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Zaawansowana Piła Szablasta, 1200 W</t>
+          <t>Uniwersalna Pilarka Tarczowa, Akumulatorowa - 165 Mm, 1200 W</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Zaawansowana piła szablasta o mocy 1200 W</t>
+          <t>Uniwersalna, akumulatorowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Zaawansowana piła szablasta o mocy 1200 W</t>
+          <t>Uniwersalna, akumulatorowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Brzeszczot Bagnetowy</t>
+          <t>Piła Tarczowa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Brzeszczot Bagnetowy</t>
+          <t>Piła Tarczowa</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1237,29 +1237,29 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Bezszczotkowy</t>
+          <t>Szczotkowy</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Bezszczotkowy</t>
+          <t>Szczotkowy</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Przewodowy</t>
+          <t>Akumulator 18V</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Przewodowy</t>
+          <t>Akumulator 18V</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="P10" t="n">
-        <v>690</v>
+        <v>650</v>
       </c>
     </row>
     <row r="11">
@@ -1270,27 +1270,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EPT165ZP</t>
+          <t>EPT165PA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pilarka Tarczowa - Zaawansowana, Przewodowa - 165</t>
+          <t>Pilarka Tarczowa - Podstawowa, Akumulatorowa - 165</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Zaawansowana Pilarka Tarczowa, Przewodowa - 165 Mm, 1600 W</t>
+          <t>Podstawowa Pilarka Tarczowa, Akumulatorowa - 165 Mm, 800 W</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Zaawansowana pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
+          <t>Podstawowa, akumulatorowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Zaawansowana pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
+          <t>Podstawowa, akumulatorowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1305,39 +1305,39 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1600 W</t>
+          <t>800 W</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1600 W</t>
+          <t>800 W</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Bezszczotkowy</t>
+          <t>Szczotkowy</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Bezszczotkowy</t>
+          <t>Szczotkowy</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Przewodowy</t>
+          <t>Akumulator 18V</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Przewodowy</t>
+          <t>Akumulator 18V</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="P11" t="n">
-        <v>800</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12">
@@ -1348,27 +1348,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EPT165UP</t>
+          <t>EPT165PP</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Pilarka Tarczowa - Uniwersalna, Przewodowa - 165</t>
+          <t>Pilarka Tarczowa - Podstawowa, Przewodowa - 165</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Uniwersalna Pilarka Tarczowa, Przewodowa - 165 Mm, 1200 W</t>
+          <t>Podstawowa Pilarka Tarczowa, Przewodowa - 165 Mm, 800 W</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Uniwersalna pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
+          <t>Podstawowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Uniwersalna pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
+          <t>Podstawowa pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1383,12 +1383,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1200 W</t>
+          <t>800 W</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1200 W</t>
+          <t>800 W</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1412,10 +1412,10 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P12" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13">
@@ -1426,47 +1426,47 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EPSUP</t>
+          <t>EPT165UP</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Piła Szablasta - Uniwersalna - 800 W</t>
+          <t>Pilarka Tarczowa - Uniwersalna, Przewodowa - 165</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Uniwersalna Piła Szablasta, 800 W</t>
+          <t>Uniwersalna Pilarka Tarczowa, Przewodowa - 165 Mm, 1200 W</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Uniwersalna piła szablasta o mocy 800 W</t>
+          <t>Uniwersalna pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Uniwersalna piła szablasta o mocy 800 W</t>
+          <t>Uniwersalna pilarka tarczowa do tarcz o rozmiarze 165 mm.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Brzeszczot Bagnetowy</t>
+          <t>Piła Tarczowa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Brzeszczot Bagnetowy</t>
+          <t>Piła Tarczowa</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>800 W</t>
+          <t>1200 W</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>800 W</t>
+          <t>1200 W</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1490,10 +1490,10 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="P13" t="n">
-        <v>320</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -1737,17 +1737,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PTU165</t>
+          <t>PTDZ210</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Piła Tarczowa - Uniwersalna 165</t>
+          <t>Piła Tarczowa Do Drewna - Zaawansowana 210</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Piła Tarczowa - Uniwersalna 165</t>
+          <t>Piła Tarczowa Do Drewna - Zaawansowana 210</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1762,43 +1762,448 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>Piła tarczowa do drewna  o rozmiarze 210 mm do najtrudniejszych zadań.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Piła tarczowa do drewna  o rozmiarze 210 mm do najtrudniejszych zadań.</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>210</v>
+      </c>
+      <c r="L4" t="n">
+        <v>210</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Węglik Spiekany</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Węglik Spiekany</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>24</v>
+      </c>
+      <c r="R4" t="n">
+        <v>24</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Drewno</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Drewno
+Fornir
+Płyty Wiórowe</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>220</v>
+      </c>
+      <c r="V4" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>zmodyfikowane</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BBD230</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy - Do Drewna 230</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy - Do Drewna 230</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Brzeszczot bagnetowy do drewna o długości 230 mm</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Brzeszczot bagnetowy do drewna o długości 230 mm.</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>230</v>
+      </c>
+      <c r="J5" t="n">
+        <v>230</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bimetal</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Bimetal</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>8</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Drewno</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Drewno
+Fornir
+Płyty Wiórowe</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>20</v>
+      </c>
+      <c r="V5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>zmodyfikowane</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BBM230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy - Do Metalu 230</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy - Do Metalu 230</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Brzeszczot bagnetowy do metalu o długości 230 mm</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Brzeszczot bagnetowy do metalu o długości 230 mm.</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>230</v>
+      </c>
+      <c r="J6" t="n">
+        <v>230</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Hss</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Hss</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>24</v>
+      </c>
+      <c r="R6" t="n">
+        <v>24</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Laminat
+Metal
+Pvc</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Laminat
+Metal
+Pvc</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>20</v>
+      </c>
+      <c r="V6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>zmodyfikowane</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BBM300</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy - Do Metalu 300</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Brzeszczot bagnetowy do metalu o długości 300 mm.</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>230</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Hss</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>24</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Laminat
+Metal
+Pvc</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>zmodyfikowane</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PTDP210</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa Do Drewna -  Podstawowa 210</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa Do Drewna -  Podstawowa 210</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Piła tarczowa o rozmiarze 210 mm  do podstawowych zastowań przy drewnie.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Piła tarczowa o rozmiarze 210 mm  do podstawowych zastowań przy drewnie.</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>210</v>
+      </c>
+      <c r="L8" t="n">
+        <v>210</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Węglik Spiekany</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Węglik Spiekany</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>24</v>
+      </c>
+      <c r="R8" t="n">
+        <v>24</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Drewno</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Drewno
+Fornir
+Płyty Wiórowe</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>140</v>
+      </c>
+      <c r="V8" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>zmodyfikowane</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PTU210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa - Uniwersalna 210</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa - Uniwersalna 210</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Uniwersalna piła tarczowa o rozmiarze 165 mm do roznych materiałów.</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Uniwersalna piła tarczowa o rozmiarze 165 mm do roznych materiałów.</t>
         </is>
       </c>
-      <c r="K4" t="n">
-        <v>165</v>
-      </c>
-      <c r="L4" t="n">
-        <v>165</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="K9" t="n">
+        <v>210</v>
+      </c>
+      <c r="L9" t="n">
+        <v>210</v>
+      </c>
+      <c r="M9" t="n">
         <v>1.5</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N9" t="n">
         <v>1.5</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Węglik Spiekany</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>Węglik Spiekany</t>
         </is>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q9" t="n">
         <v>48</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R9" t="n">
         <v>48</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Aluminium
 Drewno
@@ -1806,7 +2211,7 @@
 Pvc</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>Aluminium
 Drewno
@@ -1814,437 +2219,83 @@
 Pvc</t>
         </is>
       </c>
-      <c r="U4" t="n">
-        <v>200</v>
-      </c>
-      <c r="V4" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="U9" t="n">
+        <v>250</v>
+      </c>
+      <c r="V9" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>zmodyfikowane</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>BBM150</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Brzeszczot Bagnetowy - Do Metalu 150</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Brzeszczot Bagnetowy - Do Metalu 150</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Brzeszczot Bagnetowy</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Brzeszczot Bagnetowy</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Brzeszczot bagnetowy do metalu o długości 150 mm</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Brzeszczot bagnetowy do metalu o długości 150 mm.</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>150</v>
-      </c>
-      <c r="J5" t="n">
-        <v>150</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Hss</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Hss</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v>24</v>
-      </c>
-      <c r="R5" t="n">
-        <v>24</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Laminat
-Metal
-Pvc</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Laminat
-Metal
-Pvc</t>
-        </is>
-      </c>
-      <c r="U5" t="n">
-        <v>12</v>
-      </c>
-      <c r="V5" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>zmodyfikowane</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PTDZ165</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Piła Tarczowa Do Drewna - Zaawansowana 165</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Piła Tarczowa Do Drewna - Zaawansowana 165</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PTU165</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa - Uniwersalna 165</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa - Uniwersalna 165</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Piła Tarczowa</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Piła Tarczowa</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Piła tarczowa do drewna o rozmiarze 165 mm  do najtrudniejszych zadań.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Piła tarczowa do drewna o rozmiarze 165 mm  do najtrudniejszych zadań.</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Uniwersalna piła tarczowa o rozmiarze 165 mm do roznych materiałów.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Uniwersalna piła tarczowa o rozmiarze 165 mm do roznych materiałów.</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>165</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L10" t="n">
         <v>165</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M10" t="n">
         <v>1.5</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N10" t="n">
         <v>1.5</v>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Węglik Spiekany</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>Węglik Spiekany</t>
         </is>
       </c>
-      <c r="Q6" t="n">
-        <v>24</v>
-      </c>
-      <c r="R6" t="n">
-        <v>24</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Drewno</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Drewno
-Fornir
-Płyty Wiórowe</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v>180</v>
-      </c>
-      <c r="V6" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>zmodyfikowane</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PTDP210</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Piła Tarczowa Do Drewna -  Podstawowa 210</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Piła Tarczowa Do Drewna -  Podstawowa 210</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Piła Tarczowa</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Piła Tarczowa</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Piła tarczowa o rozmiarze 210 mm  do podstawowych zastowań przy drewnie.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Piła tarczowa o rozmiarze 210 mm  do podstawowych zastowań przy drewnie.</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>210</v>
-      </c>
-      <c r="L7" t="n">
-        <v>210</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Węglik Spiekany</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Węglik Spiekany</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>24</v>
-      </c>
-      <c r="R7" t="n">
-        <v>24</v>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Drewno</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Drewno
-Fornir
-Płyty Wiórowe</t>
-        </is>
-      </c>
-      <c r="U7" t="n">
-        <v>140</v>
-      </c>
-      <c r="V7" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>zmodyfikowane</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>BBD150</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Brzeszczot Bagnetowy - Do Drewna 150</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Brzeszczot Bagnetowy - Do Drewna 150</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Brzeszczot Bagnetowy</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Brzeszczot Bagnetowy</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Brzeszczot bagnetowy do drewna o długości 150 mm</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Brzeszczot bagnetowy do drewna o długości 150 mm.</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>150</v>
-      </c>
-      <c r="J8" t="n">
-        <v>150</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Bimetal</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Bimetal</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>8</v>
-      </c>
-      <c r="R8" t="n">
-        <v>8</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Drewno</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Drewno
-Fornir
-Płyty Wiórowe</t>
-        </is>
-      </c>
-      <c r="U8" t="n">
-        <v>12</v>
-      </c>
-      <c r="V8" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>zmodyfikowane</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>PTU210</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Piła Tarczowa - Uniwersalna 210</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Piła Tarczowa - Uniwersalna 210</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Piła Tarczowa</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Piła Tarczowa</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Uniwersalna piła tarczowa o rozmiarze 165 mm do roznych materiałów.</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Uniwersalna piła tarczowa o rozmiarze 165 mm do roznych materiałów.</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>210</v>
-      </c>
-      <c r="L9" t="n">
-        <v>210</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Węglik Spiekany</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Węglik Spiekany</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>48</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R10" t="n">
         <v>48</v>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Aluminium
 Drewno
@@ -2252,7 +2303,7 @@
 Pvc</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>Aluminium
 Drewno
@@ -2260,467 +2311,416 @@
 Pvc</t>
         </is>
       </c>
-      <c r="U9" t="n">
-        <v>250</v>
-      </c>
-      <c r="V9" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="U10" t="n">
+        <v>200</v>
+      </c>
+      <c r="V10" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>zmodyfikowane</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>BBD300</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Brzeszczot Bagnetowy - Do Drewna 300</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BBD150</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy - Do Drewna 150</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy - Do Drewna 150</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Brzeszczot Bagnetowy</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Brzeszczot bagnetowy do drewna o długości 300 mm.</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>230</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Brzeszczot bagnetowy do drewna o długości 150 mm</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Brzeszczot bagnetowy do drewna o długości 150 mm.</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>150</v>
+      </c>
+      <c r="J11" t="n">
+        <v>150</v>
+      </c>
+      <c r="M11" t="n">
         <v>1.3</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="N11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>Bimetal</t>
         </is>
       </c>
-      <c r="J10" t="n">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Bimetal</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
         <v>8</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="R11" t="n">
+        <v>8</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Drewno</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>Drewno
 Fornir
 Płyty Wiórowe</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="U11" t="n">
+        <v>12</v>
+      </c>
+      <c r="V11" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>zmodyfikowane</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>PTDZ210</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Piła Tarczowa Do Drewna - Zaawansowana 210</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Piła Tarczowa Do Drewna - Zaawansowana 210</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Piła Tarczowa</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Piła Tarczowa</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Piła tarczowa do drewna  o rozmiarze 210 mm do najtrudniejszych zadań.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Piła tarczowa do drewna  o rozmiarze 210 mm do najtrudniejszych zadań.</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>210</v>
-      </c>
-      <c r="L11" t="n">
-        <v>210</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Węglik Spiekany</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Węglik Spiekany</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>24</v>
-      </c>
-      <c r="R11" t="n">
-        <v>24</v>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Drewno</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BBD300</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy - Do Drewna 300</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Brzeszczot bagnetowy do drewna o długości 300 mm.</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>230</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Bimetal</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>8</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Drewno
 Fornir
 Płyty Wiórowe</t>
         </is>
       </c>
-      <c r="U11" t="n">
-        <v>220</v>
-      </c>
-      <c r="V11" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="L12" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>zmodyfikowane</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>BBD230</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Brzeszczot Bagnetowy - Do Drewna 230</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Brzeszczot Bagnetowy - Do Drewna 230</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Brzeszczot Bagnetowy</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Brzeszczot Bagnetowy</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Brzeszczot bagnetowy do drewna o długości 230 mm</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Brzeszczot bagnetowy do drewna o długości 230 mm.</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>230</v>
-      </c>
-      <c r="J12" t="n">
-        <v>230</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Bimetal</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Bimetal</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
-        <v>8</v>
-      </c>
-      <c r="R12" t="n">
-        <v>8</v>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PTDP165</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa Do Drewna - Podstawowa 165</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa Do Drewna - Podstawowa 165</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Piła tarczowa o rozmiarze 165 mm do podstawowych zastowań przy drewnie.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Piła tarczowa o rozmiarze 165 mm do podstawowych zastowań przy drewnie.</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>165</v>
+      </c>
+      <c r="L13" t="n">
+        <v>165</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Węglik Spiekany</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Węglik Spiekany</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>24</v>
+      </c>
+      <c r="R13" t="n">
+        <v>24</v>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>Drewno</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>Drewno
 Fornir
 Płyty Wiórowe</t>
         </is>
       </c>
-      <c r="U12" t="n">
-        <v>20</v>
-      </c>
-      <c r="V12" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="U13" t="n">
+        <v>100</v>
+      </c>
+      <c r="V13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>zmodyfikowane</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>BBM230</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Brzeszczot Bagnetowy - Do Metalu 230</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Brzeszczot Bagnetowy - Do Metalu 230</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PTDZ165</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa Do Drewna - Zaawansowana 165</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa Do Drewna - Zaawansowana 165</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Piła Tarczowa</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Piła tarczowa do drewna o rozmiarze 165 mm  do najtrudniejszych zadań.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Piła tarczowa do drewna o rozmiarze 165 mm  do najtrudniejszych zadań.</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>165</v>
+      </c>
+      <c r="L14" t="n">
+        <v>165</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Węglik Spiekany</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Węglik Spiekany</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>24</v>
+      </c>
+      <c r="R14" t="n">
+        <v>24</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Drewno</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Drewno
+Fornir
+Płyty Wiórowe</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>180</v>
+      </c>
+      <c r="V14" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>zmodyfikowane</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BBM150</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy - Do Metalu 150</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Brzeszczot Bagnetowy - Do Metalu 150</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Brzeszczot Bagnetowy</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Brzeszczot Bagnetowy</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Brzeszczot bagnetowy do metalu o długości 230 mm</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Brzeszczot bagnetowy do metalu o długości 230 mm.</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>230</v>
-      </c>
-      <c r="J13" t="n">
-        <v>230</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Brzeszczot bagnetowy do metalu o długości 150 mm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Brzeszczot bagnetowy do metalu o długości 150 mm.</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>150</v>
+      </c>
+      <c r="J15" t="n">
+        <v>150</v>
+      </c>
+      <c r="M15" t="n">
         <v>0.9</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N15" t="n">
         <v>0.9</v>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>Hss</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>Hss</t>
         </is>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q15" t="n">
         <v>24</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R15" t="n">
         <v>24</v>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>Laminat
 Metal
 Pvc</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>Laminat
 Metal
 Pvc</t>
         </is>
       </c>
-      <c r="U13" t="n">
-        <v>20</v>
-      </c>
-      <c r="V13" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>zmodyfikowane</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>BBM300</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Brzeszczot Bagnetowy - Do Metalu 300</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Brzeszczot Bagnetowy</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Brzeszczot bagnetowy do metalu o długości 300 mm.</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>230</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Hss</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>24</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Laminat
-Metal
-Pvc</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>zmodyfikowane</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>PTDP165</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Piła Tarczowa Do Drewna - Podstawowa 165</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Piła Tarczowa Do Drewna - Podstawowa 165</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Piła Tarczowa</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Piła Tarczowa</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Piła tarczowa o rozmiarze 165 mm do podstawowych zastowań przy drewnie.</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Piła tarczowa o rozmiarze 165 mm do podstawowych zastowań przy drewnie.</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>165</v>
-      </c>
-      <c r="L15" t="n">
-        <v>165</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Węglik Spiekany</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Węglik Spiekany</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
-        <v>24</v>
-      </c>
-      <c r="R15" t="n">
-        <v>24</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Drewno</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>Drewno
-Fornir
-Płyty Wiórowe</t>
-        </is>
-      </c>
       <c r="U15" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="V15" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
